--- a/1_Plasma_Pipette/1_Schematic/Plasma_Pipette_V1.0_Main_BOM.xlsx
+++ b/1_Plasma_Pipette/1_Schematic/Plasma_Pipette_V1.0_Main_BOM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_Plasma_Generator\1_Plasma_Pipette\1_Schematic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
@@ -2259,7 +2254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2269,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P26" sqref="O26:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2279,10 +2274,11 @@
     <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="58.625" customWidth="1"/>
     <col min="9" max="9" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="12.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
